--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H2">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I2">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J2">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N2">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O2">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P2">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q2">
-        <v>29.43128743922343</v>
+        <v>103.4464474162845</v>
       </c>
       <c r="R2">
-        <v>29.43128743922343</v>
+        <v>931.0180267465602</v>
       </c>
       <c r="S2">
-        <v>0.002052074788185822</v>
+        <v>0.005338028781800364</v>
       </c>
       <c r="T2">
-        <v>0.002052074788185822</v>
+        <v>0.005580746778301518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H3">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I3">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J3">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N3">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O3">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P3">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q3">
-        <v>6.310025177500225</v>
+        <v>23.86534868800178</v>
       </c>
       <c r="R3">
-        <v>6.310025177500225</v>
+        <v>214.788138192016</v>
       </c>
       <c r="S3">
-        <v>0.0004399618469394298</v>
+        <v>0.001231496309115404</v>
       </c>
       <c r="T3">
-        <v>0.0004399618469394298</v>
+        <v>0.001287491945157337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H4">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I4">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J4">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N4">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O4">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P4">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q4">
-        <v>4.773481959018434</v>
+        <v>16.33709605849956</v>
       </c>
       <c r="R4">
-        <v>4.773481959018434</v>
+        <v>147.033864526496</v>
       </c>
       <c r="S4">
-        <v>0.000332827505429034</v>
+        <v>0.0008430244938269357</v>
       </c>
       <c r="T4">
-        <v>0.000332827505429034</v>
+        <v>0.0008813564745087749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H5">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I5">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J5">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N5">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O5">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P5">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q5">
-        <v>9.102729794137263</v>
+        <v>39.20914616754312</v>
       </c>
       <c r="R5">
-        <v>9.102729794137263</v>
+        <v>352.8823155078881</v>
       </c>
       <c r="S5">
-        <v>0.0006346811145380827</v>
+        <v>0.002023264751759999</v>
       </c>
       <c r="T5">
-        <v>0.0006346811145380827</v>
+        <v>0.002115261776694167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H6">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I6">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J6">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.909385743545741</v>
+        <v>9.030272500000001</v>
       </c>
       <c r="N6">
-        <v>8.909385743545741</v>
+        <v>18.060545</v>
       </c>
       <c r="O6">
-        <v>0.1246051725172955</v>
+        <v>0.1150229382423478</v>
       </c>
       <c r="P6">
-        <v>0.1246051725172955</v>
+        <v>0.07973923936315172</v>
       </c>
       <c r="Q6">
-        <v>7.062641895850225</v>
+        <v>23.76656950657334</v>
       </c>
       <c r="R6">
-        <v>7.062641895850225</v>
+        <v>142.59941703944</v>
       </c>
       <c r="S6">
-        <v>0.0004924374919849439</v>
+        <v>0.001226399119925467</v>
       </c>
       <c r="T6">
-        <v>0.0004924374919849439</v>
+        <v>0.0008547753258994239</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H7">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J7">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N7">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O7">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P7">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q7">
-        <v>2945.557176020492</v>
+        <v>40.10264329914222</v>
       </c>
       <c r="R7">
-        <v>2945.557176020492</v>
+        <v>360.92378969228</v>
       </c>
       <c r="S7">
-        <v>0.2053767994537642</v>
+        <v>0.00206937086293208</v>
       </c>
       <c r="T7">
-        <v>0.2053767994537642</v>
+        <v>0.002163464313979255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H8">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J8">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N8">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O8">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P8">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q8">
-        <v>631.5231700562734</v>
+        <v>9.251777992850888</v>
       </c>
       <c r="R8">
-        <v>631.5231700562734</v>
+        <v>83.266001935658</v>
       </c>
       <c r="S8">
-        <v>0.04403248679160944</v>
+        <v>0.0004774089245416744</v>
       </c>
       <c r="T8">
-        <v>0.04403248679160944</v>
+        <v>0.0004991165140682796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H9">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J9">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N9">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O9">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P9">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q9">
-        <v>477.742065073661</v>
+        <v>6.333332387349778</v>
       </c>
       <c r="R9">
-        <v>477.742065073661</v>
+        <v>56.99999148614801</v>
       </c>
       <c r="S9">
-        <v>0.03331021278012288</v>
+        <v>0.0003268117118834916</v>
       </c>
       <c r="T9">
-        <v>0.03331021278012288</v>
+        <v>0.0003416717074331448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H10">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J10">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N10">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O10">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P10">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q10">
-        <v>911.0240631459111</v>
+        <v>15.20004255432156</v>
       </c>
       <c r="R10">
-        <v>911.0240631459111</v>
+        <v>136.800382988894</v>
       </c>
       <c r="S10">
-        <v>0.0635204802125252</v>
+        <v>0.0007843504215572129</v>
       </c>
       <c r="T10">
-        <v>0.0635204802125252</v>
+        <v>0.0008200145160492241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H11">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J11">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.909385743545741</v>
+        <v>9.030272500000001</v>
       </c>
       <c r="N11">
-        <v>8.909385743545741</v>
+        <v>18.060545</v>
       </c>
       <c r="O11">
-        <v>0.1246051725172955</v>
+        <v>0.1150229382423478</v>
       </c>
       <c r="P11">
-        <v>0.1246051725172955</v>
+        <v>0.07973923936315172</v>
       </c>
       <c r="Q11">
-        <v>706.8469417433516</v>
+        <v>9.213484688661667</v>
       </c>
       <c r="R11">
-        <v>706.8469417433516</v>
+        <v>55.28090813197</v>
       </c>
       <c r="S11">
-        <v>0.04928438116249995</v>
+        <v>0.0004754329189366707</v>
       </c>
       <c r="T11">
-        <v>0.04928438116249995</v>
+        <v>0.0003313671068616757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H12">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I12">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J12">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.1269981675388</v>
+        <v>39.30519333333334</v>
       </c>
       <c r="N12">
-        <v>37.1269981675388</v>
+        <v>117.91558</v>
       </c>
       <c r="O12">
-        <v>0.5192519602226081</v>
+        <v>0.5006492135628842</v>
       </c>
       <c r="P12">
-        <v>0.5192519602226081</v>
+        <v>0.5206099073015165</v>
       </c>
       <c r="Q12">
-        <v>4472.232165473781</v>
+        <v>4337.8182200942</v>
       </c>
       <c r="R12">
-        <v>4472.232165473781</v>
+        <v>39040.3639808478</v>
       </c>
       <c r="S12">
-        <v>0.3118230859806581</v>
+        <v>0.2238394752784498</v>
       </c>
       <c r="T12">
-        <v>0.3118230859806581</v>
+        <v>0.2340173651322267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H13">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I13">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J13">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.95997435334606</v>
+        <v>9.067804333333333</v>
       </c>
       <c r="N13">
-        <v>7.95997435334606</v>
+        <v>27.203413</v>
       </c>
       <c r="O13">
-        <v>0.1113268642847197</v>
+        <v>0.1155009993138849</v>
       </c>
       <c r="P13">
-        <v>0.1113268642847197</v>
+        <v>0.1201059802293714</v>
       </c>
       <c r="Q13">
-        <v>958.8400650851892</v>
+        <v>1000.74528370337</v>
       </c>
       <c r="R13">
-        <v>958.8400650851892</v>
+        <v>9006.70755333033</v>
       </c>
       <c r="S13">
-        <v>0.06685441564617083</v>
+        <v>0.05164031497536593</v>
       </c>
       <c r="T13">
-        <v>0.06685441564617083</v>
+        <v>0.05398837908327095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H14">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I14">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J14">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.02165489060689</v>
+        <v>6.207392666666667</v>
       </c>
       <c r="N14">
-        <v>6.02165489060689</v>
+        <v>18.622178</v>
       </c>
       <c r="O14">
-        <v>0.08421785385454338</v>
+        <v>0.0790665556708286</v>
       </c>
       <c r="P14">
-        <v>0.08421785385454338</v>
+        <v>0.08221890917495668</v>
       </c>
       <c r="Q14">
-        <v>725.3545942397387</v>
+        <v>685.06318695322</v>
       </c>
       <c r="R14">
-        <v>725.3545942397387</v>
+        <v>6165.56868257898</v>
       </c>
       <c r="S14">
-        <v>0.05057481356899146</v>
+        <v>0.0353505325764576</v>
       </c>
       <c r="T14">
-        <v>0.05057481356899146</v>
+        <v>0.03695790690749534</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H15">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I15">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J15">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.4829170516046</v>
+        <v>14.89778633333333</v>
       </c>
       <c r="N15">
-        <v>11.4829170516046</v>
+        <v>44.693359</v>
       </c>
       <c r="O15">
-        <v>0.1605981491208333</v>
+        <v>0.1897602932100546</v>
       </c>
       <c r="P15">
-        <v>0.1605981491208333</v>
+        <v>0.1973259639310038</v>
       </c>
       <c r="Q15">
-        <v>1383.205578859698</v>
+        <v>1644.15649727891</v>
       </c>
       <c r="R15">
-        <v>1383.205578859698</v>
+        <v>14797.40847551019</v>
       </c>
       <c r="S15">
-        <v>0.09644298779377</v>
+        <v>0.08484152837980684</v>
       </c>
       <c r="T15">
-        <v>0.09644298779377</v>
+        <v>0.08869923815062175</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>110.36247</v>
+      </c>
+      <c r="H16">
+        <v>331.08741</v>
+      </c>
+      <c r="I16">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J16">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N16">
+        <v>18.060545</v>
+      </c>
+      <c r="O16">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P16">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q16">
+        <v>996.603177873075</v>
+      </c>
+      <c r="R16">
+        <v>5979.61906723845</v>
+      </c>
+      <c r="S16">
+        <v>0.05142657462282971</v>
+      </c>
+      <c r="T16">
+        <v>0.03584328002925492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.860357</v>
+      </c>
+      <c r="H17">
+        <v>386.581071</v>
+      </c>
+      <c r="I17">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J17">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.30519333333334</v>
+      </c>
+      <c r="N17">
+        <v>117.91558</v>
+      </c>
+      <c r="O17">
+        <v>0.5006492135628842</v>
+      </c>
+      <c r="P17">
+        <v>0.5206099073015165</v>
+      </c>
+      <c r="Q17">
+        <v>5064.881244887353</v>
+      </c>
+      <c r="R17">
+        <v>45583.93120398618</v>
+      </c>
+      <c r="S17">
+        <v>0.2613572774791441</v>
+      </c>
+      <c r="T17">
+        <v>0.2732410865318445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>128.860357</v>
+      </c>
+      <c r="H18">
+        <v>386.581071</v>
+      </c>
+      <c r="I18">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J18">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.067804333333333</v>
+      </c>
+      <c r="N18">
+        <v>27.203413</v>
+      </c>
+      <c r="O18">
+        <v>0.1155009993138849</v>
+      </c>
+      <c r="P18">
+        <v>0.1201059802293714</v>
+      </c>
+      <c r="Q18">
+        <v>1168.48050359948</v>
+      </c>
+      <c r="R18">
+        <v>10516.32453239532</v>
+      </c>
+      <c r="S18">
+        <v>0.06029576379831025</v>
+      </c>
+      <c r="T18">
+        <v>0.06303738764202747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>128.860357</v>
+      </c>
+      <c r="H19">
+        <v>386.581071</v>
+      </c>
+      <c r="I19">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J19">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.207392666666667</v>
+      </c>
+      <c r="N19">
+        <v>18.622178</v>
+      </c>
+      <c r="O19">
+        <v>0.0790665556708286</v>
+      </c>
+      <c r="P19">
+        <v>0.08221890917495668</v>
+      </c>
+      <c r="Q19">
+        <v>799.8868350658487</v>
+      </c>
+      <c r="R19">
+        <v>7198.981515592638</v>
+      </c>
+      <c r="S19">
+        <v>0.0412756460411085</v>
+      </c>
+      <c r="T19">
+        <v>0.04315243287027389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>128.860357</v>
+      </c>
+      <c r="H20">
+        <v>386.581071</v>
+      </c>
+      <c r="I20">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J20">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.89778633333333</v>
+      </c>
+      <c r="N20">
+        <v>44.693359</v>
+      </c>
+      <c r="O20">
+        <v>0.1897602932100546</v>
+      </c>
+      <c r="P20">
+        <v>0.1973259639310038</v>
+      </c>
+      <c r="Q20">
+        <v>1919.734065423054</v>
+      </c>
+      <c r="R20">
+        <v>17277.60658880749</v>
+      </c>
+      <c r="S20">
+        <v>0.09906184263044801</v>
+      </c>
+      <c r="T20">
+        <v>0.1035661443035584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>120.457682716293</v>
-      </c>
-      <c r="H16">
-        <v>120.457682716293</v>
-      </c>
-      <c r="I16">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="J16">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.909385743545741</v>
-      </c>
-      <c r="N16">
-        <v>8.909385743545741</v>
-      </c>
-      <c r="O16">
-        <v>0.1246051725172955</v>
-      </c>
-      <c r="P16">
-        <v>0.1246051725172955</v>
-      </c>
-      <c r="Q16">
-        <v>1073.203961093097</v>
-      </c>
-      <c r="R16">
-        <v>1073.203961093097</v>
-      </c>
-      <c r="S16">
-        <v>0.07482835386281056</v>
-      </c>
-      <c r="T16">
-        <v>0.07482835386281056</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>128.860357</v>
+      </c>
+      <c r="H21">
+        <v>386.581071</v>
+      </c>
+      <c r="I21">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J21">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N21">
+        <v>18.060545</v>
+      </c>
+      <c r="O21">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P21">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q21">
+        <v>1163.644138157282</v>
+      </c>
+      <c r="R21">
+        <v>6981.864828943694</v>
+      </c>
+      <c r="S21">
+        <v>0.06004619836059284</v>
+      </c>
+      <c r="T21">
+        <v>0.04185098304360858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>3.9665605</v>
+      </c>
+      <c r="H22">
+        <v>7.933121</v>
+      </c>
+      <c r="I22">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J22">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.30519333333334</v>
+      </c>
+      <c r="N22">
+        <v>117.91558</v>
+      </c>
+      <c r="O22">
+        <v>0.5006492135628842</v>
+      </c>
+      <c r="P22">
+        <v>0.5206099073015165</v>
+      </c>
+      <c r="Q22">
+        <v>155.9064273208633</v>
+      </c>
+      <c r="R22">
+        <v>935.43856392518</v>
+      </c>
+      <c r="S22">
+        <v>0.008045061160557802</v>
+      </c>
+      <c r="T22">
+        <v>0.005607244545164479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>3.9665605</v>
+      </c>
+      <c r="H23">
+        <v>7.933121</v>
+      </c>
+      <c r="I23">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J23">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.067804333333333</v>
+      </c>
+      <c r="N23">
+        <v>27.203413</v>
+      </c>
+      <c r="O23">
+        <v>0.1155009993138849</v>
+      </c>
+      <c r="P23">
+        <v>0.1201059802293714</v>
+      </c>
+      <c r="Q23">
+        <v>35.96799449032883</v>
+      </c>
+      <c r="R23">
+        <v>215.807966941973</v>
+      </c>
+      <c r="S23">
+        <v>0.001856015306551629</v>
+      </c>
+      <c r="T23">
+        <v>0.001293605044847394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>3.9665605</v>
+      </c>
+      <c r="H24">
+        <v>7.933121</v>
+      </c>
+      <c r="I24">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J24">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.207392666666667</v>
+      </c>
+      <c r="N24">
+        <v>18.622178</v>
+      </c>
+      <c r="O24">
+        <v>0.0790665556708286</v>
+      </c>
+      <c r="P24">
+        <v>0.08221890917495668</v>
+      </c>
+      <c r="Q24">
+        <v>24.62199855958967</v>
+      </c>
+      <c r="R24">
+        <v>147.731991357538</v>
+      </c>
+      <c r="S24">
+        <v>0.001270540847552071</v>
+      </c>
+      <c r="T24">
+        <v>0.000885541215245534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>3.9665605</v>
+      </c>
+      <c r="H25">
+        <v>7.933121</v>
+      </c>
+      <c r="I25">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J25">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.89778633333333</v>
+      </c>
+      <c r="N25">
+        <v>44.693359</v>
+      </c>
+      <c r="O25">
+        <v>0.1897602932100546</v>
+      </c>
+      <c r="P25">
+        <v>0.1973259639310038</v>
+      </c>
+      <c r="Q25">
+        <v>59.09297080723984</v>
+      </c>
+      <c r="R25">
+        <v>354.557824843439</v>
+      </c>
+      <c r="S25">
+        <v>0.00304930702648256</v>
+      </c>
+      <c r="T25">
+        <v>0.002125305184080236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>3.9665605</v>
+      </c>
+      <c r="H26">
+        <v>7.933121</v>
+      </c>
+      <c r="I26">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J26">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.030272500000001</v>
+      </c>
+      <c r="N26">
+        <v>18.060545</v>
+      </c>
+      <c r="O26">
+        <v>0.1150229382423478</v>
+      </c>
+      <c r="P26">
+        <v>0.07973923936315172</v>
+      </c>
+      <c r="Q26">
+        <v>35.81912220273625</v>
+      </c>
+      <c r="R26">
+        <v>143.276488810945</v>
+      </c>
+      <c r="S26">
+        <v>0.001848333220063113</v>
+      </c>
+      <c r="T26">
+        <v>0.000858833857527119</v>
       </c>
     </row>
   </sheetData>
